--- a/src/main/resources/com/example/data/Staff.xlsx
+++ b/src/main/resources/com/example/data/Staff.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -14,42 +14,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>19020001</t>
   </si>
   <si>
+    <t>Staff1</t>
+  </si>
+  <si>
+    <t>345673</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>19020002</t>
+  </si>
+  <si>
+    <t>Staff2</t>
+  </si>
+  <si>
+    <t>345674</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>345673</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>100000</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>19020002</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>345674</t>
-  </si>
-  <si>
     <t>19020003</t>
   </si>
   <si>
-    <t>3</t>
+    <t>Staff3</t>
   </si>
   <si>
     <t>345675</t>
@@ -58,7 +61,7 @@
     <t>19020004</t>
   </si>
   <si>
-    <t>4</t>
+    <t>Staff4</t>
   </si>
   <si>
     <t>345676</t>
@@ -67,7 +70,7 @@
     <t>19020005</t>
   </si>
   <si>
-    <t>5</t>
+    <t>Staff5</t>
   </si>
   <si>
     <t>345677</t>
@@ -76,7 +79,7 @@
     <t>19020006</t>
   </si>
   <si>
-    <t>6</t>
+    <t>Staff6</t>
   </si>
   <si>
     <t>345678</t>
@@ -85,7 +88,7 @@
     <t>19020007</t>
   </si>
   <si>
-    <t>7</t>
+    <t>Staff7</t>
   </si>
   <si>
     <t>345679</t>
@@ -94,7 +97,7 @@
     <t>19020008</t>
   </si>
   <si>
-    <t>8</t>
+    <t>Staff8</t>
   </si>
   <si>
     <t>345680</t>
@@ -103,7 +106,7 @@
     <t>19020009</t>
   </si>
   <si>
-    <t>9</t>
+    <t>Staff9</t>
   </si>
   <si>
     <t>345681</t>
@@ -112,7 +115,7 @@
     <t>19020010</t>
   </si>
   <si>
-    <t>10</t>
+    <t>Staff10</t>
   </si>
   <si>
     <t>345682</t>
@@ -121,7 +124,7 @@
     <t>19020011</t>
   </si>
   <si>
-    <t>11</t>
+    <t>Staff11</t>
   </si>
   <si>
     <t>345683</t>
@@ -130,7 +133,7 @@
     <t>19020012</t>
   </si>
   <si>
-    <t>12</t>
+    <t>Staff12</t>
   </si>
   <si>
     <t>345684</t>
@@ -139,7 +142,7 @@
     <t>19020013</t>
   </si>
   <si>
-    <t>13</t>
+    <t>Staff13</t>
   </si>
   <si>
     <t>345685</t>
@@ -148,7 +151,7 @@
     <t>19020014</t>
   </si>
   <si>
-    <t>14</t>
+    <t>Staff14</t>
   </si>
   <si>
     <t>345686</t>
@@ -157,7 +160,7 @@
     <t>19020015</t>
   </si>
   <si>
-    <t>15</t>
+    <t>Staff15</t>
   </si>
   <si>
     <t>345687</t>
@@ -166,7 +169,7 @@
     <t>19020016</t>
   </si>
   <si>
-    <t>16</t>
+    <t>Staff16</t>
   </si>
   <si>
     <t>345688</t>
@@ -175,7 +178,7 @@
     <t>19020017</t>
   </si>
   <si>
-    <t>17</t>
+    <t>Staff17</t>
   </si>
   <si>
     <t>345689</t>
@@ -184,7 +187,7 @@
     <t>19020018</t>
   </si>
   <si>
-    <t>18</t>
+    <t>Staff18</t>
   </si>
   <si>
     <t>345690</t>
@@ -193,7 +196,7 @@
     <t>19020019</t>
   </si>
   <si>
-    <t>19</t>
+    <t>Staff19</t>
   </si>
   <si>
     <t>345691</t>
@@ -202,28 +205,19 @@
     <t>19020020</t>
   </si>
   <si>
+    <t>Staff20</t>
+  </si>
+  <si>
     <t>345692</t>
   </si>
   <si>
     <t>19020021</t>
   </si>
   <si>
-    <t>21</t>
+    <t>Staff21</t>
   </si>
   <si>
     <t>345693</t>
-  </si>
-  <si>
-    <t>19020022</t>
-  </si>
-  <si>
-    <t>Mạnh</t>
-  </si>
-  <si>
-    <t>0948059121</t>
-  </si>
-  <si>
-    <t>150000</t>
   </si>
 </sst>
 </file>
@@ -271,8 +265,8 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="true"/>
   </cellStyles>
-  <tableStyles xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
@@ -479,7 +473,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScale="100" view="normal"/>
   </sheetViews>
@@ -504,7 +498,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="1">
+        <f ca="1">E1*F1:F211</f>
+        <v>100000</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -525,21 +523,25 @@
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1">
+        <f ca="1">E2*F2:F212</f>
+        <v>100000</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -548,21 +550,25 @@
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1">
+        <f ca="1">E3*F3:F213</f>
+        <v>100000</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -571,21 +577,25 @@
         <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1">
+        <f ca="1">E4*F4:F214</f>
+        <v>100000</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -594,21 +604,25 @@
         <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1">
+        <f ca="1">E5*F5:F215</f>
+        <v>100000</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -617,21 +631,25 @@
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1">
+        <f ca="1">E6*F6:F216</f>
+        <v>100000</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -640,21 +658,25 @@
         <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1">
+        <f ca="1">E7*F7:F217</f>
+        <v>100000</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -663,21 +685,25 @@
         <v>4</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1">
+        <f ca="1">E8*F8:F218</f>
+        <v>100000</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -686,21 +712,25 @@
         <v>4</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1">
+        <f ca="1">E9*F9:F219</f>
+        <v>100000</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
@@ -709,21 +739,25 @@
         <v>4</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1">
+        <f ca="1">E10*F10:F220</f>
+        <v>100000</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>3</v>
@@ -732,21 +766,25 @@
         <v>4</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1">
+        <f ca="1">E11*F11:F221</f>
+        <v>100000</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>3</v>
@@ -755,21 +793,25 @@
         <v>4</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="1">
+        <f ca="1">E12*F12:F222</f>
+        <v>100000</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>3</v>
@@ -778,21 +820,25 @@
         <v>4</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1">
+        <f ca="1">E13*F13:F223</f>
+        <v>100000</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>3</v>
@@ -801,21 +847,25 @@
         <v>4</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="1">
+        <f ca="1">E14*F14:F224</f>
+        <v>100000</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>3</v>
@@ -824,21 +874,25 @@
         <v>4</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1">
+        <f ca="1">E15*F15:F225</f>
+        <v>100000</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>3</v>
@@ -847,21 +901,25 @@
         <v>4</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="1">
+        <f ca="1">E16*F16:F226</f>
+        <v>100000</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>3</v>
@@ -870,21 +928,25 @@
         <v>4</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="1">
+        <f ca="1">E17*F17:F227</f>
+        <v>100000</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>3</v>
@@ -893,21 +955,25 @@
         <v>4</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="1">
+        <f ca="1">E18*F18:F228</f>
+        <v>100000</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>3</v>
@@ -916,21 +982,25 @@
         <v>4</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="1">
+        <f ca="1">E19*F19:F229</f>
+        <v>100000</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>3</v>
@@ -939,21 +1009,25 @@
         <v>4</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="1">
+        <f ca="1">E20*F20:F230</f>
+        <v>100000</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>3</v>
@@ -962,32 +1036,13 @@
         <v>4</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="1">
+        <f ca="1">E21*F21:F231</f>
+        <v>100000</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>6</v>
       </c>
     </row>

--- a/src/main/resources/com/example/data/Staff.xlsx
+++ b/src/main/resources/com/example/data/Staff.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>19020001</t>
   </si>
@@ -31,7 +31,7 @@
     <t>100000</t>
   </si>
   <si>
-    <t>2</t>
+    <t>1</t>
   </si>
   <si>
     <t>admin</t>
@@ -46,9 +46,6 @@
     <t>345674</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>19020003</t>
   </si>
   <si>
@@ -218,6 +215,24 @@
   </si>
   <si>
     <t>345693</t>
+  </si>
+  <si>
+    <t>99999999</t>
+  </si>
+  <si>
+    <t>Mạnh Culi</t>
+  </si>
+  <si>
+    <t>99887766</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>100000000</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -265,8 +280,8 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="true"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
+  <tableStyles xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
@@ -473,7 +488,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScale="100" view="normal"/>
   </sheetViews>
@@ -498,9 +513,9 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="1" t="str">
         <f ca="1">E1*F1:F211</f>
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -523,11 +538,11 @@
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="str">
         <f ca="1">E2*F2:F212</f>
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>6</v>
@@ -535,14 +550,14 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
@@ -550,11 +565,11 @@
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="str">
         <f ca="1">E3*F3:F213</f>
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>6</v>
@@ -562,14 +577,14 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
@@ -577,11 +592,11 @@
         <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1" t="str">
         <f ca="1">E4*F4:F214</f>
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>6</v>
@@ -589,14 +604,14 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
@@ -604,11 +619,11 @@
         <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="1">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1" t="str">
         <f ca="1">E5*F5:F215</f>
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>6</v>
@@ -616,14 +631,14 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
@@ -631,11 +646,11 @@
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="str">
         <f ca="1">E6*F6:F216</f>
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>6</v>
@@ -643,14 +658,14 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
@@ -658,11 +673,11 @@
         <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1" t="str">
         <f ca="1">E7*F7:F217</f>
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>6</v>
@@ -670,14 +685,14 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
       </c>
@@ -685,11 +700,11 @@
         <v>4</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1" t="str">
         <f ca="1">E8*F8:F218</f>
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>6</v>
@@ -697,14 +712,14 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
@@ -712,11 +727,11 @@
         <v>4</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="1">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1" t="str">
         <f ca="1">E9*F9:F219</f>
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>6</v>
@@ -724,14 +739,14 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
@@ -739,11 +754,11 @@
         <v>4</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="1">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1" t="str">
         <f ca="1">E10*F10:F220</f>
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>6</v>
@@ -751,14 +766,14 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="D11" s="1" t="s">
         <v>3</v>
       </c>
@@ -766,11 +781,11 @@
         <v>4</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="1">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1" t="str">
         <f ca="1">E11*F11:F221</f>
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>6</v>
@@ -778,14 +793,14 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="D12" s="1" t="s">
         <v>3</v>
       </c>
@@ -793,11 +808,11 @@
         <v>4</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="1">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1" t="str">
         <f ca="1">E12*F12:F222</f>
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>6</v>
@@ -805,14 +820,14 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="D13" s="1" t="s">
         <v>3</v>
       </c>
@@ -820,11 +835,11 @@
         <v>4</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="1">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1" t="str">
         <f ca="1">E13*F13:F223</f>
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>6</v>
@@ -832,14 +847,14 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="D14" s="1" t="s">
         <v>3</v>
       </c>
@@ -847,11 +862,11 @@
         <v>4</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="1">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1" t="str">
         <f ca="1">E14*F14:F224</f>
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>6</v>
@@ -859,14 +874,14 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="D15" s="1" t="s">
         <v>3</v>
       </c>
@@ -874,11 +889,11 @@
         <v>4</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="1">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1" t="str">
         <f ca="1">E15*F15:F225</f>
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>6</v>
@@ -886,14 +901,14 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
@@ -901,11 +916,11 @@
         <v>4</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="1">
+        <v>5</v>
+      </c>
+      <c r="G16" s="1" t="str">
         <f ca="1">E16*F16:F226</f>
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>6</v>
@@ -913,14 +928,14 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="D17" s="1" t="s">
         <v>3</v>
       </c>
@@ -928,11 +943,11 @@
         <v>4</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="1">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1" t="str">
         <f ca="1">E17*F17:F227</f>
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>6</v>
@@ -940,14 +955,14 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="D18" s="1" t="s">
         <v>3</v>
       </c>
@@ -955,11 +970,11 @@
         <v>4</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="1">
+        <v>5</v>
+      </c>
+      <c r="G18" s="1" t="str">
         <f ca="1">E18*F18:F228</f>
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>6</v>
@@ -967,14 +982,14 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="D19" s="1" t="s">
         <v>3</v>
       </c>
@@ -982,11 +997,11 @@
         <v>4</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="1">
+        <v>5</v>
+      </c>
+      <c r="G19" s="1" t="str">
         <f ca="1">E19*F19:F229</f>
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>6</v>
@@ -994,14 +1009,14 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="D20" s="1" t="s">
         <v>3</v>
       </c>
@@ -1009,11 +1024,11 @@
         <v>4</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="1">
+        <v>5</v>
+      </c>
+      <c r="G20" s="1" t="str">
         <f ca="1">E20*F20:F230</f>
-        <v>100000</v>
+        <v>100000.0</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>6</v>
@@ -1021,28 +1036,54 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="1" t="str">
+        <f ca="1">E21*F21:F231</f>
+        <v>100000.0</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="1">
-        <f ca="1">E21*F21:F231</f>
-        <v>100000</v>
-      </c>
-      <c r="H21" s="1" t="s">
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" t="s">
         <v>6</v>
       </c>
     </row>

--- a/src/main/resources/com/example/data/Staff.xlsx
+++ b/src/main/resources/com/example/data/Staff.xlsx
@@ -1078,7 +1078,7 @@
         <v>71</v>
       </c>
       <c r="F22" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="G22" t="s">
         <v>72</v>
